--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2309307.879178403</v>
+        <v>2323170.90988696</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702197</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>173.3217671684648</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
-        <v>182.2182241459377</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>9.218218426354399</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.71334625840051</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.69723130130874</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.884372849250043</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.039630846422</v>
+        <v>280.4545017892164</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>79.78567512622607</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>85.51050409832426</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>113.3741947621089</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>80.69052336281878</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512968</v>
+        <v>84.45800155129673</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.586031366912</v>
+        <v>282.5860313669128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.1158054022842</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>219.100455164415</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.43931059510331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.47555601903397</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.31650547430128</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>43.42113460217944</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274071</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.2612243564263</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>190.5039468984518</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>137.9370429906359</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>171.3670018284226</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.2046500581796</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.58367861819291</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2369,10 +2369,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>150.0111504644081</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>55.43878055348011</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>69.96892003561962</v>
+        <v>136.5752847581543</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249799</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>25.58923446922638</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2968,7 +2968,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>101.0978062065255</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113176</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701348</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>81.72026151658287</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>109.6690920422042</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229381</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>51.93332336589613</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.00387210404209</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>108.3315462922373</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>7.52900278138502</v>
       </c>
     </row>
     <row r="41">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>116.5748789398258</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.94157071248455</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>280.418638468702</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.76001926167726</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="C2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="D2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="E2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="F2" t="n">
-        <v>221.4664328873574</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="G2" t="n">
-        <v>206.1513333648124</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
         <v>22.09252109618843</v>
@@ -4337,13 +4337,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="W2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="X2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="Y2" t="n">
-        <v>500.4124063240801</v>
+        <v>962.1762753293416</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.5615620906656</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="C3" t="n">
-        <v>266.5615620906656</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="D3" t="n">
-        <v>222.40666688016</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="E3" t="n">
-        <v>222.40666688016</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944841</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N3" t="n">
-        <v>679.0427979944841</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="O3" t="n">
-        <v>945.5396115777679</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>779.9621455744991</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>544.8100373427565</v>
       </c>
       <c r="W3" t="n">
-        <v>850.3886980812204</v>
+        <v>290.5726806145548</v>
       </c>
       <c r="X3" t="n">
-        <v>642.5371978756875</v>
+        <v>290.5726806145548</v>
       </c>
       <c r="Y3" t="n">
-        <v>434.7768991107336</v>
+        <v>290.5726806145548</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>170.0056146785816</v>
+        <v>30.05653407522888</v>
       </c>
       <c r="D4" t="n">
-        <v>170.0056146785816</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.2801952612975</v>
+        <v>781.3583842988708</v>
       </c>
       <c r="C5" t="n">
-        <v>132.2801952612975</v>
+        <v>781.3583842988708</v>
       </c>
       <c r="D5" t="n">
-        <v>132.2801952612975</v>
+        <v>781.3583842988708</v>
       </c>
       <c r="E5" t="n">
-        <v>51.68860422470549</v>
+        <v>781.3583842988708</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550202</v>
+        <v>405.5607773832922</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380426</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456878</v>
+        <v>220.1747338456883</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039976</v>
+        <v>474.0852112039983</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494158</v>
+        <v>773.2160860494171</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.52377693588</v>
+        <v>1447.523776935882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385688</v>
+        <v>1287.905382334246</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385688</v>
+        <v>1064.645759843534</v>
       </c>
       <c r="U5" t="n">
-        <v>1234.312215708069</v>
+        <v>1064.645759843534</v>
       </c>
       <c r="V5" t="n">
-        <v>1234.312215708069</v>
+        <v>1064.645759843534</v>
       </c>
       <c r="W5" t="n">
-        <v>881.5435604379552</v>
+        <v>1064.645759843534</v>
       </c>
       <c r="X5" t="n">
-        <v>508.0778021768753</v>
+        <v>1064.645759843534</v>
       </c>
       <c r="Y5" t="n">
-        <v>508.0778021768753</v>
+        <v>1064.645759843534</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685.2511314012309</v>
+        <v>336.1184020623579</v>
       </c>
       <c r="C6" t="n">
-        <v>510.7981021201039</v>
+        <v>249.744155498394</v>
       </c>
       <c r="D6" t="n">
-        <v>510.7981021201039</v>
+        <v>249.744155498394</v>
       </c>
       <c r="E6" t="n">
-        <v>396.278713471509</v>
+        <v>249.744155498394</v>
       </c>
       <c r="F6" t="n">
         <v>249.744155498394</v>
@@ -4641,55 +4641,55 @@
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="K6" t="n">
-        <v>195.4097745063014</v>
+        <v>195.5446164760268</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7277836524376</v>
+        <v>195.5446164760268</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524376</v>
+        <v>563.8638510139853</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903954</v>
+        <v>848.0470181903971</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562715</v>
+        <v>1156.361899562717</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706684</v>
+        <v>1386.808705706687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1402.847410707613</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707611</v>
+        <v>1234.174372107482</v>
       </c>
       <c r="T6" t="n">
-        <v>1402.847410707611</v>
+        <v>1234.174372107482</v>
       </c>
       <c r="U6" t="n">
-        <v>1174.640596361175</v>
+        <v>1005.967557761046</v>
       </c>
       <c r="V6" t="n">
-        <v>939.4884881294324</v>
+        <v>1005.967557761046</v>
       </c>
       <c r="W6" t="n">
-        <v>685.2511314012309</v>
+        <v>751.7302010328447</v>
       </c>
       <c r="X6" t="n">
-        <v>685.2511314012309</v>
+        <v>543.8787008273118</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.2511314012309</v>
+        <v>336.1184020623579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888155</v>
+        <v>32.09990175888171</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611263</v>
+        <v>90.61654790611294</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236687</v>
+        <v>162.7032697236692</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840002</v>
+        <v>238.5105468400026</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057945</v>
+        <v>292.5145415057952</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918682</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918682</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918682</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918682</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918682</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771381</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.4350995402963</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.378275356799</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.238943380987</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,13 +4887,13 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,34 +5051,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N12" t="n">
-        <v>1296.555866665166</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.112461128548</v>
+        <v>571.6642370999743</v>
       </c>
       <c r="C13" t="n">
-        <v>656.1762782006411</v>
+        <v>402.7280541720675</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>252.6114147597317</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9271131227918</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X13" t="n">
-        <v>874.9271131227918</v>
+        <v>792.4568162435045</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.9271131227918</v>
+        <v>571.6642370999743</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503.5547239186418</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>503.5547239186418</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>902.2557172223356</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X16" t="n">
-        <v>905.9957678924117</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y16" t="n">
-        <v>685.2031887488815</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,10 +5537,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>498.9056400965586</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>745.6707680030228</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799423</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471251</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557908</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557908</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1359.585924102721</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1104.901435896834</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>815.4842658598729</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X19" t="n">
-        <v>815.4842658598729</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.6916867163428</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615588</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4037.957270257085</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>3869.021087329178</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>3869.021087329178</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4809.759948147431</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4809.759948147431</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4809.759948147431</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4520.631309360989</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>4265.946821155102</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W22" t="n">
-        <v>4265.946821155102</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X22" t="n">
-        <v>4037.957270257085</v>
+        <v>646.9375622247744</v>
       </c>
       <c r="Y22" t="n">
-        <v>4037.957270257085</v>
+        <v>426.1449830812443</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,13 +6020,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,19 +6066,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.3911813763037</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="C25" t="n">
-        <v>321.3911813763037</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="D25" t="n">
-        <v>321.3911813763037</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E25" t="n">
-        <v>321.3911813763037</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045608</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="X25" t="n">
-        <v>503.0396462065435</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="Y25" t="n">
-        <v>503.0396462065435</v>
+        <v>3761.099816979246</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6233,7 +6233,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.274692278279</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.0094076762778</v>
+        <v>3747.528235457772</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>3609.573402368727</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368727</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368727</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368727</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368727</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585742</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557898</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557898</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.99626047345</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.99626047345</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687008</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687008</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500476</v>
+        <v>3747.528235457772</v>
       </c>
       <c r="X28" t="n">
-        <v>720.4504516500476</v>
+        <v>3747.528235457772</v>
       </c>
       <c r="Y28" t="n">
-        <v>499.6578725065175</v>
+        <v>3747.528235457772</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3777.748724048912</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>3777.748724048912</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>3777.748724048912</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048912</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048912</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4758.735576846085</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4469.606938059643</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>4469.606938059643</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>4180.189768022682</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X31" t="n">
-        <v>4180.189768022682</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y31" t="n">
-        <v>3959.397188879152</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,10 +6731,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2649.889045452862</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2896.654173359326</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>3569.372800808167</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>3899.235428472199</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4168.996359003561</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C34" t="n">
-        <v>4000.060176075654</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D34" t="n">
-        <v>4000.060176075654</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E34" t="n">
-        <v>4000.060176075654</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014291</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014291</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977331</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>4571.437402977331</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y34" t="n">
-        <v>4350.644823833801</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>391.6040140015125</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L36" t="n">
-        <v>638.3691419079765</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>3691.258913613709</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>729.1316371486826</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C37" t="n">
-        <v>560.1954542207757</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207757</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383826</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7123,22 +7123,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1246.538358083661</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1246.538358083661</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>1246.538358083661</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>957.1211880466999</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X37" t="n">
-        <v>729.1316371486826</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y37" t="n">
-        <v>729.1316371486826</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7181,10 +7181,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L39" t="n">
-        <v>539.5926371926337</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9127704725952</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>468.5954956259884</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585754</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473462</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473462</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473462</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473462</v>
       </c>
       <c r="W40" t="n">
-        <v>696.5850465240057</v>
+        <v>1298.996260473462</v>
       </c>
       <c r="X40" t="n">
-        <v>468.5954956259884</v>
+        <v>1071.006709575445</v>
       </c>
       <c r="Y40" t="n">
-        <v>468.5954956259884</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7415,22 +7415,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>3446.276123502709</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>3776.138751166742</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916369</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3892.733927312015</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="C43" t="n">
-        <v>3723.797744384108</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D43" t="n">
-        <v>3723.797744384108</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E43" t="n">
-        <v>3606.045341414587</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>4295.174971285785</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>4295.174971285785</v>
+        <v>804.4237603777963</v>
       </c>
       <c r="X43" t="n">
-        <v>4295.174971285785</v>
+        <v>576.4342094797789</v>
       </c>
       <c r="Y43" t="n">
-        <v>4074.382392142255</v>
+        <v>355.6416303362488</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
@@ -7673,7 +7673,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7731,22 +7731,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2416896507652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028587</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>991.8797053790223</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>763.890154481005</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y46" t="n">
-        <v>763.890154481005</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>336.3888653812137</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>280.2832971594983</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948384</v>
+        <v>102.9473967948383</v>
       </c>
       <c r="K6" t="n">
-        <v>264.3290330027552</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>83.65043707503854</v>
       </c>
       <c r="M6" t="n">
-        <v>78.06372243715136</v>
+        <v>450.1033532835737</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470458</v>
+        <v>352.6293543192213</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>15.83804904622792</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>234.4116509503169</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119831</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>360.5026862907245</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>18.73797368291349</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806617</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.6598726146251</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9483,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.23759968302147</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9960,19 +9960,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>369.089388049373</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>104.874910276575</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>20.63789864135299</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,16 +10902,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L39" t="n">
-        <v>5.100663089359927</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>308.1251096272024</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>104.8749102765749</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.515474707636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>103.0128280443897</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>224.976128042151</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>35.20570849058532</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>148.3003094079415</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>115.1559965081684</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0.6273301237576732</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.3806737855999</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>29.82082971752919</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>89.98226746945113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>97.27790106300822</v>
+        <v>30.67153634047352</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4497548518638</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>85.52655958204497</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>35.75195598072703</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.261923898709938e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>169.6142376924931</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>121.5807812480527</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.91527480639049</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>211.0556505707098</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>29.85908370674342</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.5814276241064</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>6.104359867889002</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>142.9496361273599</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>824831.7472680075</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680076</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>824831.7472680074</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680076</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065624</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="J2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065624</v>
       </c>
       <c r="P2" t="n">
         <v>586543.5896065631</v>
@@ -26366,16 +26366,16 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703837</v>
+        <v>106137.1517703844</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252111</v>
+        <v>316711.9424252104</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>4.850638409455616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.69487113906</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313418</v>
+        <v>24677.24609313436</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817148</v>
+        <v>76496.15793817127</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.7721312277</v>
+        <v>286886.6599484431</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318338</v>
+        <v>43561.42148316554</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.60258318331</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316566</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.60258318322</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318335</v>
+        <v>43561.42148316559</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.60258318315</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316567</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316558</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.42201485719</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119549.9535445996</v>
+        <v>121379.6379977071</v>
       </c>
       <c r="C6" t="n">
-        <v>162092.9814817439</v>
+        <v>163947.0936645279</v>
       </c>
       <c r="D6" t="n">
-        <v>22072.59600162166</v>
+        <v>24003.71051716269</v>
       </c>
       <c r="E6" t="n">
-        <v>-75719.37540223281</v>
+        <v>-74165.19430221547</v>
       </c>
       <c r="F6" t="n">
-        <v>449440.6610746626</v>
+        <v>450994.8421746809</v>
       </c>
       <c r="G6" t="n">
-        <v>449440.6610746632</v>
+        <v>450994.8421746807</v>
       </c>
       <c r="H6" t="n">
-        <v>449440.6610746627</v>
+        <v>450994.8421746804</v>
       </c>
       <c r="I6" t="n">
-        <v>449440.6610746628</v>
+        <v>450994.8421746804</v>
       </c>
       <c r="J6" t="n">
-        <v>377185.9662035241</v>
+        <v>378740.1473035419</v>
       </c>
       <c r="K6" t="n">
-        <v>424763.4149815289</v>
+        <v>426317.596081546</v>
       </c>
       <c r="L6" t="n">
-        <v>372944.5031364915</v>
+        <v>374498.6842365095</v>
       </c>
       <c r="M6" t="n">
-        <v>314639.6458408259</v>
+        <v>316193.8269408434</v>
       </c>
       <c r="N6" t="n">
-        <v>449440.661074663</v>
+        <v>450994.8421746809</v>
       </c>
       <c r="O6" t="n">
-        <v>449440.661074663</v>
+        <v>450994.8421746802</v>
       </c>
       <c r="P6" t="n">
-        <v>449440.6610746633</v>
+        <v>450994.8421746809</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593889</v>
+        <v>117.5602045593895</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.256435568613032e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026361</v>
+        <v>82.53894384026418</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576978</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406724</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406679</v>
+        <v>95.88311714406747</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406724</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>233.5542785732466</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>155.8147227483631</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.3149652235129</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.7317193062382</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27512,19 +27512,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>138.5495897973191</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7311001689623</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705855</v>
+        <v>102.2793398742642</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>302.1446949460357</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.83641489528878</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.79050283128772</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>87.19799488999148</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>44.27088569329207</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358479</v>
+        <v>78.37121764358471</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322665</v>
+        <v>68.41045236322657</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674583</v>
@@ -27828,7 +27828,7 @@
         <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>3.721434690769797</v>
+        <v>3.721434690768945</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116.6180362611964</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>167.1374834916386</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>117.8704916639476</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.047442317557</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28564,13 +28564,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.931042323936707e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,22 +30037,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30153,7 +30153,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-6.835989552200771e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31054,34 +31054,34 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246788</v>
+        <v>0.472603837424681</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025493</v>
+        <v>4.840054050025516</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231495</v>
+        <v>18.22005944231503</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662287</v>
+        <v>40.11165994662306</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480954</v>
+        <v>60.11698038480982</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439507</v>
+        <v>74.58043007439542</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819619</v>
+        <v>82.98509856819659</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127908</v>
+        <v>84.32788422127948</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288742</v>
+        <v>79.62842981288779</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646565</v>
+        <v>67.96102257646596</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869432</v>
+        <v>51.03589764869457</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262801</v>
+        <v>29.68720080262815</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531488</v>
+        <v>10.76945994531493</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326533</v>
+        <v>2.068823298326542</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939743</v>
+        <v>0.03780830699397448</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560442</v>
+        <v>0.2528653456560453</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941269</v>
+        <v>2.44214689094128</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596258</v>
+        <v>8.706109488596299</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182828</v>
+        <v>23.89022987182839</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078324</v>
+        <v>40.83220803078343</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483538</v>
+        <v>54.90394270483564</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486696</v>
+        <v>64.07031148486728</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270949</v>
+        <v>65.7660619827098</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106766</v>
+        <v>60.16309827106794</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496865</v>
+        <v>48.28619043496887</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128732</v>
+        <v>32.27803956128748</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134633</v>
+        <v>15.6998326013464</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707659</v>
+        <v>4.696862889707681</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01922479235923</v>
+        <v>1.019224792359235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368712</v>
+        <v>0.0166358780036872</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005374</v>
+        <v>0.2119938115005384</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886598</v>
+        <v>1.884817705886607</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761619</v>
+        <v>6.375232076761648</v>
       </c>
       <c r="J7" t="n">
-        <v>14.987962473088</v>
+        <v>14.98796247308807</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342607</v>
+        <v>24.62982646342619</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072536</v>
+        <v>31.51769812072551</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094333</v>
+        <v>33.23099356094349</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898681</v>
+        <v>32.44083480898696</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736688</v>
+        <v>29.96436164736702</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6396878927559</v>
+        <v>25.63968789275602</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846773</v>
+        <v>17.75159088846781</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651435</v>
+        <v>9.532012651651479</v>
       </c>
       <c r="S7" t="n">
-        <v>3.69447396951391</v>
+        <v>3.694473969513927</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477506</v>
+        <v>0.9057917400477549</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912024</v>
+        <v>0.01156329880912029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424823</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34784,16 +34784,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.6389055562145</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>160.6933770016707</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,16 +34863,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.9166388158319</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201035</v>
+        <v>28.16237059201055</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.172541910994</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548583</v>
+        <v>256.4752296548586</v>
       </c>
       <c r="M5" t="n">
-        <v>302.152398833756</v>
+        <v>302.1523988337564</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366723</v>
+        <v>292.2617450366727</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653946</v>
+        <v>230.3303996539464</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.5267349926791</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414952</v>
+        <v>41.04519843414976</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.3198020591794</v>
+        <v>167.456006069003</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="N6" t="n">
-        <v>372.039630846422</v>
+        <v>287.0537042185978</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033528</v>
+        <v>311.429173103353</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>232.7745516605758</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111149</v>
+        <v>102.3735532111151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543218</v>
+        <v>2.360334637543335</v>
       </c>
       <c r="L7" t="n">
-        <v>59.1077233810415</v>
+        <v>59.10772338104165</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278392</v>
+        <v>72.81487052278408</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882154</v>
+        <v>76.57300718821556</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140656</v>
+        <v>54.5494895614067</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764939</v>
+        <v>22.91824715764951</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35255,19 +35255,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022524</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>516.775353191425</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>351.9325470809263</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>363.8358297686011</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>250.7532875461497</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799345</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>373.6013019241296</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>546.454964578676</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>481.9867828282178</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556958</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006117962</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5137650998392</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,7 +37163,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37385,25 +37385,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>255.4503488645142</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>353.8324720393658</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37622,16 +37622,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L39" t="n">
-        <v>254.3583680453842</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
@@ -37643,7 +37643,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118087</v>
       </c>
       <c r="Q40" t="n">
         <v>39.22569997187475</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>590.4888118683106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38099,25 +38099,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>387.238612517683</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2323170.90988696</v>
+        <v>2404854.952425259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>173.3217671684648</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>236.3626115273232</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.218218426354399</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>96.98269730768469</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +797,10 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.884372849250043</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>280.4545017892164</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464227</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464227</v>
+        <v>168.5574608896844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>85.51105155373908</v>
       </c>
       <c r="C6" t="n">
-        <v>85.51050409832426</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281878</v>
+        <v>80.69052336281877</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129673</v>
+        <v>84.45800155129672</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141301</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322655</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5860313669128</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>214.1755790036865</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>47.12987068470035</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>219.100455164415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69.10290646389849</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.43931059510331</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>43.42113460217944</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>101.1057214040792</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>61.2612243564263</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>108.013454095665</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>100.9616935639079</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>171.3670018284226</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.2046500581796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>68.46790565106362</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.0111504644081</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>132.7170563065804</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>136.5752847581543</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>111.5928093478569</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.58923446922638</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>251.6874105258739</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>81.72026151658287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.87424119343771</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>22.05952081468769</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.00387210404209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>87.77311891075327</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.52900278138502</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>15.94157071248455</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>132.6781274168075</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.76001926167726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.1762753293416</v>
+        <v>865.8759421555601</v>
       </c>
       <c r="C2" t="n">
-        <v>962.1762753293416</v>
+        <v>865.8759421555601</v>
       </c>
       <c r="D2" t="n">
-        <v>962.1762753293416</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="E2" t="n">
-        <v>962.1762753293416</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="F2" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4337,13 +4339,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293416</v>
+        <v>865.8759421555601</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293416</v>
+        <v>865.8759421555601</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293416</v>
+        <v>865.8759421555601</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.2613488707625</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="C3" t="n">
-        <v>281.2613488707625</v>
+        <v>509.9958123128651</v>
       </c>
       <c r="D3" t="n">
-        <v>281.2613488707625</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="E3" t="n">
-        <v>281.2613488707625</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F3" t="n">
-        <v>134.7267908976475</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114808</v>
+        <v>555.4329354292296</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121332</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121332</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>779.9621455744991</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="V3" t="n">
-        <v>544.8100373427565</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="W3" t="n">
-        <v>290.5726806145548</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="X3" t="n">
-        <v>290.5726806145548</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="Y3" t="n">
-        <v>290.5726806145548</v>
+        <v>607.9581328256779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>30.05653407522888</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.3583842988708</v>
+        <v>903.2493283645023</v>
       </c>
       <c r="C5" t="n">
-        <v>781.3583842988708</v>
+        <v>903.2493283645023</v>
       </c>
       <c r="D5" t="n">
-        <v>781.3583842988708</v>
+        <v>544.9836297577517</v>
       </c>
       <c r="E5" t="n">
-        <v>781.3583842988708</v>
+        <v>544.9836297577517</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832922</v>
+        <v>538.0381290085483</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771381</v>
+        <v>367.7780675038165</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380426</v>
+        <v>57.64391735380434</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456883</v>
+        <v>220.1747338456885</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039983</v>
+        <v>474.0852112039988</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494171</v>
+        <v>773.2160860494176</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635723</v>
+        <v>1062.555213635724</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.58230929313</v>
+        <v>1290.582309293131</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935882</v>
+        <v>1447.523776935883</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="S5" t="n">
-        <v>1287.905382334246</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="T5" t="n">
-        <v>1064.645759843534</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="U5" t="n">
-        <v>1064.645759843534</v>
+        <v>1234.312215708073</v>
       </c>
       <c r="V5" t="n">
-        <v>1064.645759843534</v>
+        <v>903.2493283645023</v>
       </c>
       <c r="W5" t="n">
-        <v>1064.645759843534</v>
+        <v>903.2493283645023</v>
       </c>
       <c r="X5" t="n">
-        <v>1064.645759843534</v>
+        <v>903.2493283645023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.645759843534</v>
+        <v>903.2493283645023</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336.1184020623579</v>
+        <v>704.7959641209758</v>
       </c>
       <c r="C6" t="n">
-        <v>249.744155498394</v>
+        <v>530.3429348398488</v>
       </c>
       <c r="D6" t="n">
-        <v>249.744155498394</v>
+        <v>381.4085251785976</v>
       </c>
       <c r="E6" t="n">
-        <v>249.744155498394</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="F6" t="n">
-        <v>249.744155498394</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771381</v>
+        <v>52.67537262782869</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760268</v>
+        <v>57.53734611231408</v>
       </c>
       <c r="L6" t="n">
-        <v>195.5446164760268</v>
+        <v>341.8553552584506</v>
       </c>
       <c r="M6" t="n">
-        <v>563.8638510139853</v>
+        <v>710.1745897964092</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903971</v>
+        <v>1078.493824334368</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562717</v>
+        <v>1386.808705706688</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706687</v>
+        <v>1386.808705706688</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707613</v>
+        <v>1402.847410707614</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107482</v>
+        <v>1234.174372107483</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107482</v>
+        <v>1234.174372107483</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.967557761046</v>
+        <v>1234.174372107483</v>
       </c>
       <c r="V6" t="n">
-        <v>1005.967557761046</v>
+        <v>999.02226387574</v>
       </c>
       <c r="W6" t="n">
-        <v>751.7302010328447</v>
+        <v>999.02226387574</v>
       </c>
       <c r="X6" t="n">
-        <v>543.8787008273118</v>
+        <v>791.1707636702072</v>
       </c>
       <c r="Y6" t="n">
-        <v>336.1184020623579</v>
+        <v>791.1707636702072</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888171</v>
+        <v>32.09990175888176</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611294</v>
+        <v>90.61654790611303</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236692</v>
+        <v>162.7032697236693</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400026</v>
+        <v>238.5105468400027</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057952</v>
+        <v>292.5145415057954</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918682</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918682</v>
+        <v>246.1021391583062</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918682</v>
+        <v>246.1021391583062</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918682</v>
+        <v>246.1021391583062</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918682</v>
+        <v>246.1021391583062</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771381</v>
+        <v>246.1021391583062</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771381</v>
+        <v>246.1021391583062</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771381</v>
+        <v>29.76317046771383</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1469.752853299486</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,10 +4892,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240415</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240415</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240415</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5382038240415</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>149.5382038240415</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4993,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240415</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5039,13 +5041,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5121,13 +5123,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899333</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698951</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
         <v>1661.954360834046</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6642370999743</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7280541720675</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D13" t="n">
-        <v>252.6114147597317</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141522</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141522</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>792.4568162435045</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y13" t="n">
-        <v>571.6642370999743</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5358,22 +5360,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>902.2557172223356</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>647.5712290164488</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>647.5712290164488</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X16" t="n">
-        <v>647.5712290164488</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5515,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,7 +5548,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>166.5495793176467</v>
       </c>
       <c r="K18" t="n">
-        <v>498.9056400965586</v>
+        <v>315.6192635197066</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030228</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5674,10 +5676,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1285.859658469316</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1062.074243258822</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1062.074243258822</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>807.3897550529354</v>
       </c>
       <c r="W19" t="n">
-        <v>836.769640042142</v>
+        <v>807.3897550529354</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>579.400204154918</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,25 +5755,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>463.6845480678929</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5910,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227918</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X22" t="n">
-        <v>646.9375622247744</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y22" t="n">
-        <v>426.1449830812443</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5983,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>570.0299571250974</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315615</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3609.573402368732</v>
+        <v>399.4500457733748</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>4271.309566159736</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W25" t="n">
-        <v>3981.892396122776</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X25" t="n">
-        <v>3981.892396122776</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y25" t="n">
-        <v>3761.099816979246</v>
+        <v>399.4500457733748</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6208,55 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1912.313820009359</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2432.614441745106</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3747.528235457772</v>
+        <v>3720.806624707063</v>
       </c>
       <c r="C28" t="n">
-        <v>3609.573402368727</v>
+        <v>3720.806624707063</v>
       </c>
       <c r="D28" t="n">
-        <v>3609.573402368727</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368727</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368727</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368727</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916671</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916671</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
         <v>3471.538086380584</v>
@@ -6394,40 +6396,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281175</v>
+        <v>4748.134563572013</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494733</v>
+        <v>4459.005924785571</v>
       </c>
       <c r="V28" t="n">
-        <v>4036.945405494733</v>
+        <v>4459.005924785571</v>
       </c>
       <c r="W28" t="n">
-        <v>3747.528235457772</v>
+        <v>4169.58875474861</v>
       </c>
       <c r="X28" t="n">
-        <v>3747.528235457772</v>
+        <v>3941.599203850593</v>
       </c>
       <c r="Y28" t="n">
-        <v>3747.528235457772</v>
+        <v>3720.806624707063</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>844.1942894808745</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6652,19 +6654,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1133.611459517835</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>1133.611459517835</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>844.1942894808745</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>844.1942894808745</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.048587976198</v>
+        <v>844.1942894808745</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,19 +6779,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880509</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
         <v>2016.139981183168</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>738.7219969042602</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C34" t="n">
-        <v>656.1762782006411</v>
+        <v>588.4743893200339</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0596387883054</v>
+        <v>438.3577499076981</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>290.444656325305</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>143.5547088273946</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X34" t="n">
-        <v>920.3704617344999</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.3704617344999</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,7 +6964,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>3033.644633014775</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>3340.964766294737</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>3691.258913613709</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.1994242851239</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="C37" t="n">
-        <v>657.1994242851239</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>269.9174441696028</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>269.9174441696028</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>269.9174441696028</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W37" t="n">
-        <v>755.183133481126</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X37" t="n">
-        <v>755.183133481126</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y37" t="n">
-        <v>657.1994242851239</v>
+        <v>420.0340835819385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,22 +7186,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7214,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>410.874530133163</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.771599890052</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>881.753191430675</v>
+        <v>502.7260840420538</v>
       </c>
       <c r="C40" t="n">
-        <v>712.8170085027681</v>
+        <v>333.7899011141469</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>333.7899011141469</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>185.8768075317538</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585754</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.91627055791</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473462</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473462</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473462</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473462</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W40" t="n">
-        <v>1298.996260473462</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.006709575445</v>
+        <v>905.1671280158237</v>
       </c>
       <c r="Y40" t="n">
-        <v>1063.401656260915</v>
+        <v>684.3745488722935</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7497,19 +7499,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1818.397748747283</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>804.4237603777963</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>576.4342094797789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,40 +7660,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7834,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X46" t="n">
-        <v>447.8017392184325</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>274.34551349684</v>
       </c>
       <c r="N3" t="n">
-        <v>336.3888653812137</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>124.673618687554</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>101.9203152713385</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503854</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835737</v>
+        <v>450.1033532835738</v>
       </c>
       <c r="N6" t="n">
-        <v>352.6293543192213</v>
+        <v>437.6152809470464</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.6882169793613</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622792</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119831</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907245</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>28.12263706262945</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2603911806617</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>283.6093329825487</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>230.7151863772034</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.8749102765746</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>176.7176547498455</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>20.63789864135299</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>297.3877236703345</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>308.1251096272036</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>113.6026921294541</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.0128280443897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>47.80810696345694</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>224.976128042151</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>178.5095442409261</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.95911641969535</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>115.1559965081684</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6273301237576732</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.96605699550555</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.82082971752919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.52976479204742</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>30.67153634047352</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>109.9547517105324</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.2427457127109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>34.54994187270341</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.52655958204497</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>120.6193272699399</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>144.4340476486899</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.5807812480527</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>57.64792911217798</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.0556505707098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>270.5814276241064</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>34.56869368182032</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9496361273599</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680076</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>824831.7472680076</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065624</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065632</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="L2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="N2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065624</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703844</v>
+        <v>106137.1517703846</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252104</v>
+        <v>316711.9424252101</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113906</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313436</v>
+        <v>24677.24609313434</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817127</v>
+        <v>76496.15793817115</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26418,46 +26420,46 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484431</v>
+        <v>286886.6599484429</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316553</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
         <v>43561.42148316554</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316554</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316566</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316561</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316559</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316567</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316556</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26472,37 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485719</v>
+        <v>58810.42201485721</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26522,13 +26524,13 @@
         <v>121379.6379977071</v>
       </c>
       <c r="C6" t="n">
-        <v>163947.0936645279</v>
+        <v>163947.0936645275</v>
       </c>
       <c r="D6" t="n">
-        <v>24003.71051716269</v>
+        <v>24003.71051716318</v>
       </c>
       <c r="E6" t="n">
-        <v>-74165.19430221547</v>
+        <v>-74165.19430221512</v>
       </c>
       <c r="F6" t="n">
         <v>450994.8421746809</v>
@@ -26537,31 +26539,31 @@
         <v>450994.8421746807</v>
       </c>
       <c r="H6" t="n">
-        <v>450994.8421746804</v>
+        <v>450994.8421746808</v>
       </c>
       <c r="I6" t="n">
-        <v>450994.8421746804</v>
+        <v>450994.8421746809</v>
       </c>
       <c r="J6" t="n">
         <v>378740.1473035419</v>
       </c>
       <c r="K6" t="n">
-        <v>426317.596081546</v>
+        <v>426317.5960815465</v>
       </c>
       <c r="L6" t="n">
-        <v>374498.6842365095</v>
+        <v>374498.6842365096</v>
       </c>
       <c r="M6" t="n">
-        <v>316193.8269408434</v>
+        <v>316193.8269408436</v>
       </c>
       <c r="N6" t="n">
-        <v>450994.8421746809</v>
+        <v>450994.8421746804</v>
       </c>
       <c r="O6" t="n">
-        <v>450994.8421746802</v>
+        <v>450994.8421746806</v>
       </c>
       <c r="P6" t="n">
-        <v>450994.8421746809</v>
+        <v>450994.8421746808</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593895</v>
+        <v>117.5602045593896</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464227</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26960,13 +26962,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026418</v>
+        <v>82.53894384026432</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576971</v>
+        <v>260.183459657697</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406724</v>
+        <v>95.8831171440674</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081329</v>
+        <v>302.2476419081327</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406747</v>
+        <v>95.8831171440674</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081329</v>
+        <v>302.2476419081324</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406724</v>
+        <v>95.8831171440674</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081329</v>
+        <v>302.2476419081327</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
-        <v>233.5542785732466</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>112.8783571900898</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.3149652235129</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>75.72580168063105</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27515,10 +27517,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>140.7311001689623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27591,7 +27593,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.2793398742642</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528878</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128772</v>
+        <v>246.272672788026</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>81.02213209612826</v>
       </c>
       <c r="C6" t="n">
-        <v>87.19799488999148</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,19 +27751,19 @@
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27797,7 @@
         <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358471</v>
+        <v>78.37121764358469</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322657</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27828,13 +27830,13 @@
         <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>3.721434690768945</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>72.34741933290454</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>307.5531709359826</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.1374834916386</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>79.51256655431386</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>117.8704916639476</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31072,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31197,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31221,10 +31223,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472603837424681</v>
+        <v>0.4726038374246816</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025516</v>
+        <v>4.840054050025522</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231503</v>
+        <v>18.22005944231505</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662306</v>
+        <v>40.11165994662311</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480982</v>
+        <v>60.11698038480989</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439542</v>
+        <v>74.58043007439551</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819659</v>
+        <v>82.98509856819669</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127948</v>
+        <v>84.32788422127958</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288779</v>
+        <v>79.62842981288789</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646596</v>
+        <v>67.96102257646605</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869457</v>
+        <v>51.03589764869462</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262815</v>
+        <v>29.68720080262818</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531493</v>
+        <v>10.76945994531494</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326542</v>
+        <v>2.068823298326545</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397448</v>
+        <v>0.03780830699397452</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560453</v>
+        <v>0.2528653456560457</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44214689094128</v>
+        <v>2.442146890941284</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596299</v>
+        <v>8.70610948859631</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182839</v>
+        <v>23.89022987182842</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078343</v>
+        <v>40.83220803078348</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483564</v>
+        <v>54.90394270483571</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486728</v>
+        <v>64.07031148486735</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827098</v>
+        <v>65.76606198270987</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106794</v>
+        <v>60.16309827106802</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496887</v>
+        <v>48.28619043496894</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128748</v>
+        <v>32.27803956128751</v>
       </c>
       <c r="R6" t="n">
-        <v>15.6998326013464</v>
+        <v>15.69983260134642</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707681</v>
+        <v>4.696862889707687</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359235</v>
+        <v>1.019224792359236</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0166358780036872</v>
+        <v>0.01663587800368722</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005384</v>
+        <v>0.2119938115005387</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886607</v>
+        <v>1.884817705886609</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761648</v>
+        <v>6.375232076761656</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308807</v>
+        <v>14.98796247308808</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342619</v>
+        <v>24.62982646342622</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072551</v>
+        <v>31.51769812072555</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094349</v>
+        <v>33.23099356094352</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898696</v>
+        <v>32.440834808987</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736702</v>
+        <v>29.96436164736706</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275602</v>
+        <v>25.63968789275605</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846781</v>
+        <v>17.75159088846783</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651479</v>
+        <v>9.532012651651492</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513927</v>
+        <v>3.694473969513932</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477549</v>
+        <v>0.905791740047756</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912029</v>
+        <v>0.01156329880912031</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34784,10 +34786,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>151.298066666745</v>
       </c>
       <c r="N3" t="n">
-        <v>224.6389055562145</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,7 +34874,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201055</v>
+        <v>28.16237059201059</v>
       </c>
       <c r="K5" t="n">
-        <v>164.172541910994</v>
+        <v>164.1725419109941</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548586</v>
+        <v>256.4752296548587</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337564</v>
+        <v>302.1523988337565</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366727</v>
+        <v>292.2617450366728</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539464</v>
+        <v>230.3303996539465</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926791</v>
+        <v>158.5267349926792</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414976</v>
+        <v>41.04519843414982</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557057</v>
       </c>
       <c r="K6" t="n">
-        <v>167.456006069003</v>
+        <v>4.91108432776302</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284207</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464227</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="N6" t="n">
-        <v>287.0537042185978</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="O6" t="n">
-        <v>311.429173103353</v>
+        <v>311.4291731033531</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605758</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>102.3735532111151</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543335</v>
+        <v>2.360334637543364</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104165</v>
+        <v>59.10772338104169</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278408</v>
+        <v>72.8148705227841</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821556</v>
+        <v>76.5730071882156</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614067</v>
+        <v>54.54948956140673</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764951</v>
+        <v>22.91824715764954</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>265.0957540022524</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>609.7603912467489</v>
+        <v>408.1301468599572</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>70.03281601753616</v>
       </c>
       <c r="K18" t="n">
-        <v>363.8358297686011</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>590.488811868312</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>490.7027479140735</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>309.5875389014639</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325992</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.8879430616487</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556958</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>408.1301468599572</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>487.1420318003117</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>353.8324720393658</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118087</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,22 +37867,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>607.8121007208008</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>515.2185245587283</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>424.0270691799203</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2404854.952425259</v>
+        <v>2397681.663714975</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>236.3626115273232</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>228.504491817103</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>96.98269730768469</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>15.92068873709636</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>49.19131839878378</v>
       </c>
       <c r="G5" t="n">
-        <v>168.5574608896844</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.51105155373908</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281877</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129672</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.9546773564044</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>57.78085107675736</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358483</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322655</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>214.1755790036865</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>47.12987068470035</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>297.5642569908811</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>69.10290646389849</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.85599612146588</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>58.07966709607759</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>101.1057214040792</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.6240153440573</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>108.013454095665</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>100.9616935639079</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>68.46790565106362</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>132.7170563065804</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>64.3419076393841</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>111.5928093478569</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056553</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498001</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>251.6874105258739</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.87424119343771</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273963</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.05952081468769</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,13 +3562,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>87.77311891075327</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>78.46129407658275</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>132.6781274168075</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>25.82923535834098</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>865.8759421555601</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="C2" t="n">
-        <v>865.8759421555601</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="D2" t="n">
-        <v>586.9299687188374</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="E2" t="n">
-        <v>307.9839952821146</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="W2" t="n">
-        <v>865.8759421555601</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="X2" t="n">
-        <v>865.8759421555601</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.8759421555601</v>
+        <v>523.4729093258054</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>607.9581328256779</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="C3" t="n">
-        <v>509.9958123128651</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D3" t="n">
-        <v>361.0614026516138</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
         <v>159.4923828364511</v>
@@ -4418,13 +4418,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>555.4329354292296</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945615</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>607.9581328256779</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>607.9581328256779</v>
+        <v>1088.544551034577</v>
       </c>
       <c r="W3" t="n">
-        <v>607.9581328256779</v>
+        <v>1088.544551034577</v>
       </c>
       <c r="X3" t="n">
-        <v>607.9581328256779</v>
+        <v>880.6930508290441</v>
       </c>
       <c r="Y3" t="n">
-        <v>607.9581328256779</v>
+        <v>672.9327520640902</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>903.2493283645023</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="C5" t="n">
-        <v>903.2493283645023</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="D5" t="n">
-        <v>544.9836297577517</v>
+        <v>808.243807829994</v>
       </c>
       <c r="E5" t="n">
-        <v>544.9836297577517</v>
+        <v>432.4462009144166</v>
       </c>
       <c r="F5" t="n">
-        <v>538.0381290085483</v>
+        <v>382.7580005116047</v>
       </c>
       <c r="G5" t="n">
         <v>367.7780675038165</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380434</v>
+        <v>57.64391735380389</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456885</v>
+        <v>220.1747338456875</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039988</v>
+        <v>474.0852112039971</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494176</v>
+        <v>773.2160860494153</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635724</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293131</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935883</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385692</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385692</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="U5" t="n">
-        <v>1234.312215708073</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="V5" t="n">
-        <v>903.2493283645023</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="W5" t="n">
-        <v>903.2493283645023</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="X5" t="n">
-        <v>903.2493283645023</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="Y5" t="n">
-        <v>903.2493283645023</v>
+        <v>1166.509506436744</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704.7959641209758</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>530.3429348398488</v>
+        <v>484.4695931075355</v>
       </c>
       <c r="D6" t="n">
-        <v>381.4085251785976</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>176.2977284408288</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782869</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K6" t="n">
-        <v>57.53734611231408</v>
+        <v>195.5446164760264</v>
       </c>
       <c r="L6" t="n">
-        <v>341.8553552584506</v>
+        <v>479.8626256221623</v>
       </c>
       <c r="M6" t="n">
-        <v>710.1745897964092</v>
+        <v>848.1818601601196</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.493824334368</v>
+        <v>949.3968358693976</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706688</v>
+        <v>1257.711717241717</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107483</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107483</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.174372107483</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="V6" t="n">
-        <v>999.02226387574</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="W6" t="n">
-        <v>999.02226387574</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>791.1707636702072</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>791.1707636702072</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771383</v>
+        <v>167.2905126094735</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771383</v>
+        <v>167.2905126094735</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771383</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771383</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771383</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888176</v>
+        <v>32.09990175888142</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611303</v>
+        <v>90.61654790611239</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236693</v>
+        <v>162.7032697236683</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400027</v>
+        <v>238.5105468400015</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057954</v>
+        <v>292.5145415057938</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Q7" t="n">
-        <v>246.1021391583062</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="R7" t="n">
-        <v>246.1021391583062</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="S7" t="n">
-        <v>246.1021391583062</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="T7" t="n">
-        <v>246.1021391583062</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="U7" t="n">
-        <v>246.1021391583062</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1021391583062</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918666</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.715370239897</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C8" t="n">
-        <v>1469.752853299486</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>765.4988431664176</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>354.51293837681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.715370239897</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,7 +4892,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>416.4487827635302</v>
       </c>
     </row>
     <row r="11">
@@ -5044,19 +5044,19 @@
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5080,7 +5080,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.4607221898733</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="C13" t="n">
-        <v>349.4607221898733</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="D13" t="n">
-        <v>199.3440827775376</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E13" t="n">
-        <v>199.3440827775376</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>199.3440827775376</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>199.3440827775376</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.109187020113</v>
+        <v>454.2145238948141</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5281,10 +5281,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,13 +5293,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.223678370532</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>847.3060485260917</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>697.1894091137559</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>549.2763155313628</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>402.3863680334524</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>234.211046353273</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>622.2132292685493</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X16" t="n">
-        <v>394.223678370532</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.223678370532</v>
+        <v>1016.242231453999</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>166.5495793176467</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>315.6192635197066</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>929.5163332765953</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1285.859658469316</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1062.074243258822</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1062.074243258822</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>807.3897550529354</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>807.3897550529354</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,13 +5743,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5773,10 +5773,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011341</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265285</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>613.8011874802287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>613.8011874802287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>463.6845480678929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352016</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.242231453999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>795.4496523104684</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079765</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
         <v>1406.737288300438</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>399.4500457733748</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169049</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W25" t="n">
-        <v>620.2426249169049</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X25" t="n">
-        <v>620.2426249169049</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.4500457733748</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6211,34 +6211,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3720.806624707063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3720.806624707063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028964</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028964</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028964</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028964</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028964</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241995</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688109</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799402</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.063975947123</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T28" t="n">
-        <v>4748.134563572013</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="U28" t="n">
-        <v>4459.005924785571</v>
+        <v>786.0822064765225</v>
       </c>
       <c r="V28" t="n">
-        <v>4459.005924785571</v>
+        <v>531.3977182706357</v>
       </c>
       <c r="W28" t="n">
-        <v>4169.58875474861</v>
+        <v>241.9805482336751</v>
       </c>
       <c r="X28" t="n">
-        <v>3941.599203850593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3720.806624707063</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,55 +6442,55 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6502,7 +6502,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615138</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.1942894808745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1133.611459517835</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.611459517835</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>844.1942894808745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>844.1942894808745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>844.1942894808745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>757.4105722479408</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C34" t="n">
-        <v>588.4743893200339</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D34" t="n">
-        <v>438.3577499076981</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>290.444656325305</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>143.5547088273946</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>1387.841167119728</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>1159.851616221711</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y34" t="n">
-        <v>939.0590370781805</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822451</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6967,19 +6967,19 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.0340835819385</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>420.0340835819385</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>269.9174441696028</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>269.9174441696028</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>269.9174441696028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>709.4512536188992</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>420.0340835819385</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>420.0340835819385</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.0340835819385</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,10 +7210,10 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>1818.397748747283</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
-        <v>2338.698370483031</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>502.7260840420538</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>333.7899011141469</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>333.7899011141469</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>185.8768075317538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="W40" t="n">
-        <v>1133.156678913841</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X40" t="n">
-        <v>905.1671280158237</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y40" t="n">
-        <v>684.3745488722935</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,64 +7399,64 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7614,7 +7614,7 @@
         <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,10 +7627,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>379.1484955647068</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1472.826133832305</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1249.040718621811</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.579090436494</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X46" t="n">
-        <v>781.5895395384766</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y46" t="n">
-        <v>560.7969603949465</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>274.34551349684</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>275.9716853542989</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>101.9203152713385</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835738</v>
+        <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470464</v>
+        <v>167.8129993019149</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.6882169793613</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247343</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>28.12263706262945</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.114737013995</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>283.6093329825487</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L24" t="n">
-        <v>104.874910276575</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>158.8724419039329</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>52.49733361305226</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.7396287231151</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M42" t="n">
-        <v>297.3877236703345</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>90.53580592213476</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>47.80810696345694</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>13.28981302347887</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,16 +23706,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>178.5095442409261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>96.95911641969535</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>77.96605699550555</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.52976479204742</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>221.8954447591933</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>109.9547517105324</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338184</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.54994187270341</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>120.6193272699399</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>144.4340476486899</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>57.64792911217798</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>31.50305832721006</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.56869368182032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>172.0915746252623</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>824831.7472680076</v>
+        <v>824831.7472680078</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>824831.7472680078</v>
+        <v>824831.7472680077</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>824831.7472680077</v>
+        <v>824831.7472680076</v>
       </c>
     </row>
     <row r="14">
@@ -26316,34 +26316,34 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065634</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="M2" t="n">
         <v>586543.589606563</v>
@@ -26352,7 +26352,7 @@
         <v>586543.5896065626</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
         <v>586543.589606563</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703846</v>
+        <v>106137.1517703832</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252101</v>
+        <v>316711.9424252115</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313434</v>
+        <v>24677.24609313401</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817115</v>
+        <v>76496.1579381715</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369123</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484429</v>
+        <v>286886.6599484434</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,34 +26429,34 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316554</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316554</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="M4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="P4" t="n">
         <v>43561.42148316556</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485721</v>
+        <v>58810.4220148571</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121379.6379977071</v>
+        <v>121379.6379977072</v>
       </c>
       <c r="C6" t="n">
-        <v>163947.0936645275</v>
+        <v>163947.0936645289</v>
       </c>
       <c r="D6" t="n">
-        <v>24003.71051716318</v>
+        <v>24003.7105171619</v>
       </c>
       <c r="E6" t="n">
-        <v>-74165.19430221512</v>
+        <v>-75139.78556193711</v>
       </c>
       <c r="F6" t="n">
-        <v>450994.8421746809</v>
+        <v>450020.2509149593</v>
       </c>
       <c r="G6" t="n">
-        <v>450994.8421746807</v>
+        <v>450020.2509149588</v>
       </c>
       <c r="H6" t="n">
-        <v>450994.8421746808</v>
+        <v>450020.2509149589</v>
       </c>
       <c r="I6" t="n">
-        <v>450994.8421746809</v>
+        <v>450020.2509149592</v>
       </c>
       <c r="J6" t="n">
-        <v>378740.1473035419</v>
+        <v>377765.5560438199</v>
       </c>
       <c r="K6" t="n">
-        <v>426317.5960815465</v>
+        <v>425343.0048218248</v>
       </c>
       <c r="L6" t="n">
-        <v>374498.6842365096</v>
+        <v>373524.0929767872</v>
       </c>
       <c r="M6" t="n">
-        <v>316193.8269408436</v>
+        <v>315219.2356811218</v>
       </c>
       <c r="N6" t="n">
-        <v>450994.8421746804</v>
+        <v>450020.2509149588</v>
       </c>
       <c r="O6" t="n">
-        <v>450994.8421746806</v>
+        <v>450020.250914959</v>
       </c>
       <c r="P6" t="n">
-        <v>450994.8421746808</v>
+        <v>450020.2509149591</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593896</v>
+        <v>117.5602045593885</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,34 +26749,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026432</v>
+        <v>82.53894384026323</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657697</v>
+        <v>260.1834596576981</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.8831171440674</v>
+        <v>95.88311714406612</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081327</v>
+        <v>302.247641908134</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440674</v>
+        <v>95.88311714406612</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.2476419081338</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440674</v>
+        <v>95.88311714406612</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081327</v>
+        <v>302.247641908134</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>130.719532039356</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>112.8783571900898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>157.7334468389506</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>75.72580168063105</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>216.8798984123289</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27593,7 +27593,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421694</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225840207</v>
       </c>
       <c r="F5" t="n">
+        <v>357.6847273429277</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>246.272672788026</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.02213209612826</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129686</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
@@ -27754,16 +27754,16 @@
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.740305804515174</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7789855469582</v>
+        <v>109.9981344702009</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358469</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322671</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>72.34741933290454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>307.5531709359826</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>116.2199130299139</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>79.51256655431386</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2816472023621</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246816</v>
+        <v>0.4726038374246771</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025522</v>
+        <v>4.840054050025476</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231505</v>
+        <v>18.22005944231488</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662311</v>
+        <v>40.11165994662273</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480989</v>
+        <v>60.11698038480932</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439551</v>
+        <v>74.5804300743948</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819669</v>
+        <v>82.98509856819589</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127958</v>
+        <v>84.32788422127877</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288789</v>
+        <v>79.62842981288713</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646605</v>
+        <v>67.9610225764654</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869462</v>
+        <v>51.03589764869414</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262818</v>
+        <v>29.6872008026279</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531494</v>
+        <v>10.76945994531484</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326545</v>
+        <v>2.068823298326525</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397452</v>
+        <v>0.03780830699397416</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560457</v>
+        <v>0.2528653456560432</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941284</v>
+        <v>2.44214689094126</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859631</v>
+        <v>8.706109488596226</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182842</v>
+        <v>23.89022987182819</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078348</v>
+        <v>40.83220803078309</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483571</v>
+        <v>54.90394270483518</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486735</v>
+        <v>64.07031148486674</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270987</v>
+        <v>65.76606198270925</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106802</v>
+        <v>60.16309827106745</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496894</v>
+        <v>48.28619043496847</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128751</v>
+        <v>32.27803956128721</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134642</v>
+        <v>15.69983260134627</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707687</v>
+        <v>4.696862889707642</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359236</v>
+        <v>1.019224792359227</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368722</v>
+        <v>0.01663587800368706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005387</v>
+        <v>0.2119938115005366</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886609</v>
+        <v>1.884817705886591</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761656</v>
+        <v>6.375232076761596</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308808</v>
+        <v>14.98796247308794</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342622</v>
+        <v>24.62982646342598</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072555</v>
+        <v>31.51769812072525</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094352</v>
+        <v>33.23099356094321</v>
       </c>
       <c r="N7" t="n">
-        <v>32.440834808987</v>
+        <v>32.44083480898669</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736706</v>
+        <v>29.96436164736678</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275605</v>
+        <v>25.63968789275581</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846783</v>
+        <v>17.75159088846767</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651492</v>
+        <v>9.532012651651401</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513932</v>
+        <v>3.694473969513897</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047756</v>
+        <v>0.9057917400477473</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912031</v>
+        <v>0.01156329880912019</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
+        <v>276.1565137023554</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>151.298066666745</v>
       </c>
-      <c r="N3" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201059</v>
+        <v>28.16237059201021</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.1725419109935</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548587</v>
+        <v>256.475229654858</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337565</v>
+        <v>302.1523988337557</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366728</v>
+        <v>292.261745036672</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539465</v>
+        <v>230.3303996539458</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926792</v>
+        <v>158.5267349926785</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414982</v>
+        <v>41.04519843414933</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557057</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.91108432776302</v>
+        <v>167.4560060690027</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284207</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464229</v>
+        <v>102.2373492012909</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033531</v>
+        <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543364</v>
+        <v>2.360334637543129</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104169</v>
+        <v>59.10772338104138</v>
       </c>
       <c r="M7" t="n">
-        <v>72.8148705227841</v>
+        <v>72.81487052278379</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882156</v>
+        <v>76.57300718821529</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140673</v>
+        <v>54.54948956140645</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764954</v>
+        <v>22.91824715764929</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>408.1301468599572</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>70.03281601753616</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700194</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>490.7027479140735</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L24" t="n">
-        <v>354.1326152325992</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>541.1395634276697</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>408.1301468599572</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>385.6919070110652</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q39" t="n">
-        <v>287.7526615081892</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M42" t="n">
-        <v>607.8121007208008</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
